--- a/documents/Risks.xlsx
+++ b/documents/Risks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nils.wendland\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8023E6-94F0-486A-B2F3-BE9C0BD94D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8044E25-290D-42A3-855D-F123FD2131F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -65,11 +65,6 @@
   </si>
   <si>
     <t>Nils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Jonas misses substantial time 
-we will need other programmers
-to help us out so we finish on time </t>
   </si>
   <si>
     <t>PlugIn Update</t>
@@ -144,13 +139,39 @@
   </si>
   <si>
     <t>Bugs die nicht während dem Testen entdeckt wurden.</t>
+  </si>
+  <si>
+    <t>If Jonas misses substantial time 
+we will need other programmers
+to help us out so we finish on time</t>
+  </si>
+  <si>
+    <t>Be ready to install a new one</t>
+  </si>
+  <si>
+    <t>Weekly Meetings ensure we don't 
+fall behind</t>
+  </si>
+  <si>
+    <t>Regular Meetings will ensure 
+communication never breaks down.
+Additionally we have extra channels
+for emergencies</t>
+  </si>
+  <si>
+    <t>Always keep an eye on the most 
+important functions. Be ready to drop
+others</t>
+  </si>
+  <si>
+    <t>Get a new one</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +186,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,16 +209,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -413,7 +461,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -426,7 +474,7 @@
     <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -472,16 +520,16 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>0.05</v>
@@ -494,15 +542,16 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>0.03</v>
@@ -515,15 +564,16 @@
         <v>0.21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0.15</v>
@@ -536,15 +586,18 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>0.05</v>
@@ -559,13 +612,13 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>0.33</v>
@@ -578,15 +631,16 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>0.45</v>
@@ -601,13 +655,16 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>0.4</v>
@@ -622,13 +679,16 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>0.6</v>
@@ -641,15 +701,18 @@
         <v>0.6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>0.05</v>
@@ -662,15 +725,18 @@
         <v>0.2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>0.5</v>
@@ -683,10 +749,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E13" s="3" t="str">
         <f t="shared" ref="E13:E20" si="1">IF(D13*C13=0,"",D13*C13)</f>
         <v/>
@@ -746,5 +813,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>